--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_9_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1859440.788571499</v>
+        <v>1856943.056647809</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228319</v>
+        <v>416855.1052283191</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>263.6305726973739</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>12.92889148616886</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H2" t="n">
-        <v>47.21612773102999</v>
+        <v>315.1636514716172</v>
       </c>
       <c r="I2" t="n">
-        <v>118.9581905386867</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,16 +704,16 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S2" t="n">
-        <v>154.9260532011782</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -753,10 +753,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H3" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I3" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S3" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T3" t="n">
         <v>195.0452553973763</v>
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>183.3138280346587</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,10 +877,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>45.09467781919231</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>148.157287735024</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>12.92889148616886</v>
+        <v>12.92889148616887</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>75.32379645797634</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>118.958190538687</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.7530123241020306</v>
+        <v>0.7530123241024569</v>
       </c>
       <c r="S5" t="n">
-        <v>154.9260532011782</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1557452255192</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>136.0733975638444</v>
       </c>
       <c r="H6" t="n">
-        <v>99.96876284261759</v>
+        <v>99.96876284261762</v>
       </c>
       <c r="I6" t="n">
-        <v>45.66663787323655</v>
+        <v>45.66663787323668</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>21.29900499199404</v>
+        <v>21.29900499199427</v>
       </c>
       <c r="S6" t="n">
-        <v>148.0912566156103</v>
+        <v>148.0912566156104</v>
       </c>
       <c r="T6" t="n">
         <v>195.0452553973763</v>
@@ -1102,22 +1102,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>205.4595917937733</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.3958800207158</v>
       </c>
       <c r="U7" t="n">
-        <v>220.7129638096457</v>
+        <v>286.2609479597986</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>269.9668410848114</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>303.8483408005365</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>12.9169039459368</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>163.9722091106916</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.980384243200322</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.4618010559468</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1385,7 +1385,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1534,19 +1534,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>149.1095818503215</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>153.0347892581641</v>
       </c>
     </row>
     <row r="14">
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.5667167289874</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2096,7 +2096,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54.32649042089713</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2245,10 +2245,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>99.9742741983368</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>23.6255456814127</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2713,25 +2713,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>63.38272884730802</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>94.05355358057933</v>
       </c>
     </row>
     <row r="29">
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2962,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -3004,7 +3004,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3013,7 +3013,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>185.3892167411514</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3427,16 +3427,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3487,10 +3487,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890387</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>31.83025205763844</v>
       </c>
     </row>
     <row r="38">
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,22 +3661,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3901,7 +3901,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,10 +3910,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>211.8172046759422</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4138,16 +4138,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>32.84316668127781</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4304,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>644.6163254708449</v>
+        <v>511.2299858148726</v>
       </c>
       <c r="C2" t="n">
-        <v>644.6163254708449</v>
+        <v>511.2299858148726</v>
       </c>
       <c r="D2" t="n">
-        <v>644.6163254708449</v>
+        <v>511.2299858148726</v>
       </c>
       <c r="E2" t="n">
-        <v>644.6163254708449</v>
+        <v>511.2299858148726</v>
       </c>
       <c r="F2" t="n">
-        <v>233.6304206812374</v>
+        <v>504.2844850656691</v>
       </c>
       <c r="G2" t="n">
-        <v>220.5709343315718</v>
+        <v>491.2249987160036</v>
       </c>
       <c r="H2" t="n">
-        <v>172.8778760174001</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I2" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J2" t="n">
-        <v>72.94508437002453</v>
+        <v>72.94508437002398</v>
       </c>
       <c r="K2" t="n">
-        <v>474.9025859199842</v>
+        <v>153.9986274745297</v>
       </c>
       <c r="L2" t="n">
-        <v>1025.843037648564</v>
+        <v>374.6076920999185</v>
       </c>
       <c r="M2" t="n">
-        <v>1655.476990529841</v>
+        <v>1004.241644981194</v>
       </c>
       <c r="N2" t="n">
-        <v>2280.667081484956</v>
+        <v>1629.431735936308</v>
       </c>
       <c r="O2" t="n">
-        <v>2493.174093780568</v>
+        <v>2174.593372690802</v>
       </c>
       <c r="P2" t="n">
-        <v>2602.201833992997</v>
+        <v>2602.201833992999</v>
       </c>
       <c r="Q2" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R2" t="n">
         <v>2635.143761215016</v>
@@ -4361,19 +4361,19 @@
         <v>2478.652798385543</v>
       </c>
       <c r="U2" t="n">
-        <v>2478.652798385543</v>
+        <v>2224.960126440574</v>
       </c>
       <c r="V2" t="n">
-        <v>2147.589911041972</v>
+        <v>1893.897239097003</v>
       </c>
       <c r="W2" t="n">
-        <v>1794.821255771858</v>
+        <v>1541.128583826889</v>
       </c>
       <c r="X2" t="n">
-        <v>1421.355497510778</v>
+        <v>1167.662825565809</v>
       </c>
       <c r="Y2" t="n">
-        <v>1031.216165534967</v>
+        <v>777.5234935899978</v>
       </c>
     </row>
     <row r="3">
@@ -4383,52 +4383,52 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120973</v>
       </c>
       <c r="C3" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309703</v>
       </c>
       <c r="D3" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697192</v>
       </c>
       <c r="E3" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642636</v>
       </c>
       <c r="F3" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911487</v>
       </c>
       <c r="G3" t="n">
-        <v>199.8245529640338</v>
+        <v>199.8245529640335</v>
       </c>
       <c r="H3" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815741</v>
       </c>
       <c r="I3" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J3" t="n">
-        <v>88.93844675471689</v>
+        <v>83.27149284265647</v>
       </c>
       <c r="K3" t="n">
-        <v>417.3415039922336</v>
+        <v>411.6745500801727</v>
       </c>
       <c r="L3" t="n">
-        <v>920.3243381893446</v>
+        <v>914.6573842772829</v>
       </c>
       <c r="M3" t="n">
-        <v>1098.212790057563</v>
+        <v>1553.593849258</v>
       </c>
       <c r="N3" t="n">
-        <v>1750.599124039305</v>
+        <v>1750.599124039308</v>
       </c>
       <c r="O3" t="n">
-        <v>2298.524363244979</v>
+        <v>2298.524363244981</v>
       </c>
       <c r="P3" t="n">
         <v>2406.001465018976</v>
       </c>
       <c r="Q3" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R3" t="n">
         <v>2614.390233267651</v>
@@ -4437,7 +4437,7 @@
         <v>2464.803105373095</v>
       </c>
       <c r="T3" t="n">
-        <v>2267.787695880796</v>
+        <v>2267.787695880795</v>
       </c>
       <c r="U3" t="n">
         <v>2039.648482162597</v>
@@ -4446,13 +4446,13 @@
         <v>1804.496373930854</v>
       </c>
       <c r="W3" t="n">
-        <v>1550.259017202653</v>
+        <v>1550.259017202652</v>
       </c>
       <c r="X3" t="n">
-        <v>1342.40751699712</v>
+        <v>1342.407516997119</v>
       </c>
       <c r="Y3" t="n">
-        <v>1134.647218232166</v>
+        <v>1134.647218232165</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>371.7709099347269</v>
+        <v>221.6542705223911</v>
       </c>
       <c r="C4" t="n">
-        <v>202.8347270068199</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="D4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="E4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="F4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="G4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="H4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="I4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="J4" t="n">
-        <v>52.7180875944842</v>
+        <v>52.71808759448422</v>
       </c>
       <c r="K4" t="n">
-        <v>153.1475318919734</v>
+        <v>153.1475318919731</v>
       </c>
       <c r="L4" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M4" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N4" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O4" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P4" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q4" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R4" t="n">
-        <v>1047.75168442186</v>
+        <v>917.0295025661735</v>
       </c>
       <c r="S4" t="n">
-        <v>1047.75168442186</v>
+        <v>731.8640197028819</v>
       </c>
       <c r="T4" t="n">
-        <v>1047.75168442186</v>
+        <v>731.8640197028819</v>
       </c>
       <c r="U4" t="n">
-        <v>1047.75168442186</v>
+        <v>731.8640197028819</v>
       </c>
       <c r="V4" t="n">
-        <v>1047.75168442186</v>
+        <v>731.8640197028819</v>
       </c>
       <c r="W4" t="n">
-        <v>1002.201504806514</v>
+        <v>442.4468496659213</v>
       </c>
       <c r="X4" t="n">
-        <v>774.2119539084968</v>
+        <v>442.4468496659213</v>
       </c>
       <c r="Y4" t="n">
-        <v>553.4193747649666</v>
+        <v>221.6542705223911</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1328.44786808453</v>
+        <v>1058.796162641763</v>
       </c>
       <c r="C5" t="n">
-        <v>959.4853511441181</v>
+        <v>1058.796162641763</v>
       </c>
       <c r="D5" t="n">
-        <v>601.2196525373677</v>
+        <v>1058.796162641763</v>
       </c>
       <c r="E5" t="n">
-        <v>215.4313999391234</v>
+        <v>673.0079100435182</v>
       </c>
       <c r="F5" t="n">
-        <v>65.77757394414972</v>
+        <v>262.0220052539107</v>
       </c>
       <c r="G5" t="n">
-        <v>52.7180875944842</v>
+        <v>248.9625189042451</v>
       </c>
       <c r="H5" t="n">
-        <v>52.7180875944842</v>
+        <v>172.8778760174004</v>
       </c>
       <c r="I5" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J5" t="n">
-        <v>240.3507333903776</v>
+        <v>72.94508437002396</v>
       </c>
       <c r="K5" t="n">
-        <v>642.3082349403372</v>
+        <v>474.9025859199828</v>
       </c>
       <c r="L5" t="n">
-        <v>1042.407704672376</v>
+        <v>612.358435243616</v>
       </c>
       <c r="M5" t="n">
-        <v>1227.023259395749</v>
+        <v>1241.992388124892</v>
       </c>
       <c r="N5" t="n">
-        <v>1419.239895182999</v>
+        <v>1867.182479080005</v>
       </c>
       <c r="O5" t="n">
-        <v>1964.401531937495</v>
+        <v>2412.3441158345</v>
       </c>
       <c r="P5" t="n">
-        <v>2392.009993239692</v>
+        <v>2602.201833992998</v>
       </c>
       <c r="Q5" t="n">
         <v>2635.90437972421</v>
       </c>
       <c r="R5" t="n">
-        <v>2635.143761215016</v>
+        <v>2635.143761215015</v>
       </c>
       <c r="S5" t="n">
-        <v>2478.652798385543</v>
+        <v>2635.143761215015</v>
       </c>
       <c r="T5" t="n">
-        <v>2478.652798385543</v>
+        <v>2420.290893970236</v>
       </c>
       <c r="U5" t="n">
-        <v>2478.652798385543</v>
+        <v>2166.598222025267</v>
       </c>
       <c r="V5" t="n">
-        <v>2478.652798385543</v>
+        <v>1835.535334681696</v>
       </c>
       <c r="W5" t="n">
-        <v>2478.652798385543</v>
+        <v>1835.535334681696</v>
       </c>
       <c r="X5" t="n">
-        <v>2105.187040124463</v>
+        <v>1835.535334681696</v>
       </c>
       <c r="Y5" t="n">
-        <v>1715.047708148652</v>
+        <v>1445.396002705884</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>966.4318812120978</v>
+        <v>966.4318812120983</v>
       </c>
       <c r="C6" t="n">
-        <v>791.9788519309708</v>
+        <v>791.9788519309714</v>
       </c>
       <c r="D6" t="n">
-        <v>643.0444422697196</v>
+        <v>643.0444422697201</v>
       </c>
       <c r="E6" t="n">
-        <v>483.8069872642641</v>
+        <v>483.8069872642646</v>
       </c>
       <c r="F6" t="n">
-        <v>337.2724292911492</v>
+        <v>337.2724292911496</v>
       </c>
       <c r="G6" t="n">
-        <v>199.8245529640338</v>
+        <v>199.824552964034</v>
       </c>
       <c r="H6" t="n">
-        <v>98.84600463815747</v>
+        <v>98.84600463815761</v>
       </c>
       <c r="I6" t="n">
         <v>52.7180875944842</v>
       </c>
       <c r="J6" t="n">
-        <v>170.7774263352079</v>
+        <v>170.7774263352076</v>
       </c>
       <c r="K6" t="n">
-        <v>499.1804835727247</v>
+        <v>237.3598989302709</v>
       </c>
       <c r="L6" t="n">
-        <v>1002.163317769836</v>
+        <v>740.3427331273811</v>
       </c>
       <c r="M6" t="n">
-        <v>1180.051769638054</v>
+        <v>1379.279198108098</v>
       </c>
       <c r="N6" t="n">
-        <v>1435.320983085768</v>
+        <v>2031.66553208984</v>
       </c>
       <c r="O6" t="n">
-        <v>1983.246222291442</v>
+        <v>2506.500878103472</v>
       </c>
       <c r="P6" t="n">
-        <v>2406.001465018976</v>
+        <v>2613.977979877467</v>
       </c>
       <c r="Q6" t="n">
-        <v>2635.90437972421</v>
+        <v>2635.904379724211</v>
       </c>
       <c r="R6" t="n">
         <v>2614.390233267651</v>
@@ -4680,7 +4680,7 @@
         <v>2039.648482162597</v>
       </c>
       <c r="V6" t="n">
-        <v>1804.496373930854</v>
+        <v>1804.496373930855</v>
       </c>
       <c r="W6" t="n">
         <v>1550.259017202653</v>
@@ -4726,43 +4726,43 @@
         <v>52.7180875944842</v>
       </c>
       <c r="K7" t="n">
-        <v>153.1475318919734</v>
+        <v>153.147531891973</v>
       </c>
       <c r="L7" t="n">
-        <v>337.1890785482327</v>
+        <v>337.1890785482319</v>
       </c>
       <c r="M7" t="n">
-        <v>541.6242080628155</v>
+        <v>541.6242080628142</v>
       </c>
       <c r="N7" t="n">
-        <v>746.6329435543764</v>
+        <v>746.6329435543747</v>
       </c>
       <c r="O7" t="n">
-        <v>919.9753968917094</v>
+        <v>919.9753968917072</v>
       </c>
       <c r="P7" t="n">
-        <v>1044.779129327086</v>
+        <v>1044.779129327083</v>
       </c>
       <c r="Q7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="R7" t="n">
-        <v>1047.75168442186</v>
+        <v>1047.751684421857</v>
       </c>
       <c r="S7" t="n">
-        <v>1047.75168442186</v>
+        <v>840.2167432160254</v>
       </c>
       <c r="T7" t="n">
-        <v>1047.75168442186</v>
+        <v>614.5643391546963</v>
       </c>
       <c r="U7" t="n">
-        <v>824.809296735349</v>
+        <v>325.4118664680311</v>
       </c>
       <c r="V7" t="n">
-        <v>570.1248085294621</v>
+        <v>325.4118664680311</v>
       </c>
       <c r="W7" t="n">
-        <v>280.7076384925015</v>
+        <v>52.7180875944842</v>
       </c>
       <c r="X7" t="n">
         <v>52.7180875944842</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1485.699449423197</v>
+        <v>1283.629972875052</v>
       </c>
       <c r="C8" t="n">
-        <v>1116.736932482785</v>
+        <v>914.6674559346399</v>
       </c>
       <c r="D8" t="n">
-        <v>758.4712338760348</v>
+        <v>914.6674559346399</v>
       </c>
       <c r="E8" t="n">
-        <v>372.6829812777906</v>
+        <v>914.6674559346399</v>
       </c>
       <c r="F8" t="n">
-        <v>65.76546531765268</v>
+        <v>907.7219551854364</v>
       </c>
       <c r="G8" t="n">
-        <v>52.7180875944842</v>
+        <v>490.6341734218639</v>
       </c>
       <c r="H8" t="n">
-        <v>52.7180875944842</v>
+        <v>172.4110581943734</v>
       </c>
       <c r="I8" t="n">
         <v>52.7180875944842</v>
@@ -4805,19 +4805,19 @@
         <v>241.3579866082205</v>
       </c>
       <c r="K8" t="n">
-        <v>644.825099628266</v>
+        <v>424.4240081616016</v>
       </c>
       <c r="L8" t="n">
-        <v>1033.218542125548</v>
+        <v>977.2372664078008</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.917954950955</v>
+        <v>1163.936679233208</v>
       </c>
       <c r="N8" t="n">
-        <v>1414.252167842938</v>
+        <v>1791.244347293055</v>
       </c>
       <c r="O8" t="n">
-        <v>1961.413372610015</v>
+        <v>1961.413372610014</v>
       </c>
       <c r="P8" t="n">
         <v>2390.728418949309</v>
@@ -4829,25 +4829,25 @@
         <v>2635.90437972421</v>
       </c>
       <c r="S8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="T8" t="n">
-        <v>2635.90437972421</v>
+        <v>2479.689342221038</v>
       </c>
       <c r="U8" t="n">
-        <v>2635.90437972421</v>
+        <v>2225.997638966189</v>
       </c>
       <c r="V8" t="n">
-        <v>2635.90437972421</v>
+        <v>2225.997638966189</v>
       </c>
       <c r="W8" t="n">
-        <v>2635.90437972421</v>
+        <v>2225.997638966189</v>
       </c>
       <c r="X8" t="n">
-        <v>2262.43862146313</v>
+        <v>2060.369144914985</v>
       </c>
       <c r="Y8" t="n">
-        <v>1872.299289487319</v>
+        <v>1670.229812939173</v>
       </c>
     </row>
     <row r="9">
@@ -4884,13 +4884,13 @@
         <v>171.3773394513799</v>
       </c>
       <c r="K9" t="n">
-        <v>500.8057437571897</v>
+        <v>238.9851591147369</v>
       </c>
       <c r="L9" t="n">
-        <v>1005.167283623308</v>
+        <v>376.2147571304309</v>
       </c>
       <c r="M9" t="n">
-        <v>1184.664619977913</v>
+        <v>1016.760106597535</v>
       </c>
       <c r="N9" t="n">
         <v>1430.945911741486</v>
@@ -4987,25 +4987,25 @@
         <v>1052.652769053829</v>
       </c>
       <c r="S10" t="n">
-        <v>1052.652769053829</v>
+        <v>845.2124843062343</v>
       </c>
       <c r="T10" t="n">
-        <v>1052.652769053829</v>
+        <v>845.2124843062343</v>
       </c>
       <c r="U10" t="n">
-        <v>1052.652769053829</v>
+        <v>562.9278367749749</v>
       </c>
       <c r="V10" t="n">
-        <v>797.9682808479421</v>
+        <v>562.9278367749749</v>
       </c>
       <c r="W10" t="n">
-        <v>508.5511108109815</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="X10" t="n">
-        <v>280.5615599129641</v>
+        <v>273.5106667380143</v>
       </c>
       <c r="Y10" t="n">
-        <v>59.76898076943402</v>
+        <v>52.7180875944842</v>
       </c>
     </row>
     <row r="11">
@@ -5021,37 +5021,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5127,16 +5127,16 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2252.221377756499</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2113.492509992416</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1824.417283336614</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1569.732795130727</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1280.315625093766</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="14">
@@ -5258,13 +5258,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
@@ -5273,13 +5273,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5291,7 +5291,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,28 +5352,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K15" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>95.58405025273903</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M15" t="n">
-        <v>692.9625378792909</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N15" t="n">
-        <v>1320.560501433898</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O15" t="n">
-        <v>1872.470231673185</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2296.093381168253</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5413,19 +5413,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E16" t="n">
-        <v>407.9027098310023</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>139.234765840794</v>
       </c>
       <c r="L18" t="n">
-        <v>352.5519571452614</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>557.5558870561822</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C19" t="n">
-        <v>388.6197041282753</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5695,28 +5695,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="20">
@@ -5732,34 +5732,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5835,19 +5835,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637307</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>707.672526468518</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C22" t="n">
-        <v>538.7363435406111</v>
+        <v>344.917417812163</v>
       </c>
       <c r="D22" t="n">
-        <v>388.6197041282753</v>
+        <v>194.8007783998272</v>
       </c>
       <c r="E22" t="n">
-        <v>240.7066105458822</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
         <v>93.81666304797187</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="23">
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6124,22 +6124,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121643</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121643</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6206,10 +6206,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6303,25 +6303,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>409.1360811687896</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>904.4616873845483</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>639.6425904082687</v>
       </c>
       <c r="C28" t="n">
-        <v>699.73118040114</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888043</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888043</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>821.2910552385084</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168622</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6485,28 +6485,28 @@
         <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M30" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N30" t="n">
-        <v>1814.118720444889</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O30" t="n">
-        <v>2366.028450684176</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6674,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6698,10 +6698,10 @@
         <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6713,7 +6713,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>633.4413279836774</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6932,7 +6932,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
@@ -6971,10 +6971,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -7017,25 +7017,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L36" t="n">
-        <v>776.1751066403293</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M36" t="n">
-        <v>1373.553594266881</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N36" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>702.4944101284095</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>533.5582272005026</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7135,10 +7135,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138396</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>884.1428749586493</v>
       </c>
     </row>
     <row r="38">
@@ -7163,19 +7163,19 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,19 +7254,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>949.9304447718133</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7345,37 +7345,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7488,28 +7488,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N42" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>554.5813165460164</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>385.6451336181095</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1474.429081454764</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1185.011911417804</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>957.0223605197863</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>736.2297813762561</v>
       </c>
     </row>
     <row r="44">
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7734,19 +7734,19 @@
         <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>580.8993044876688</v>
+        <v>701.4712640439268</v>
       </c>
       <c r="C46" t="n">
-        <v>411.9631215597619</v>
+        <v>532.5350811160199</v>
       </c>
       <c r="D46" t="n">
-        <v>411.9631215597619</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>762.5477693179085</v>
+        <v>883.1197288741665</v>
       </c>
     </row>
   </sheetData>
@@ -7979,10 +7979,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504504</v>
+        <v>83.99314676945005</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -7991,10 +7991,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>44.78540908205468</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>43.42539940051889</v>
+        <v>37.70120352975113</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8064,10 +8064,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>459.9808678792256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>265.2965862711155</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>81.64644236976733</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>58.85246329939909</v>
+        <v>459.9808678792265</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>320.0341443352734</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,19 +8453,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>101.5180474533219</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5805925818469</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>321.7987081714826</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>48.10560617263477</v>
+        <v>217.7061247386729</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8945,7 +8945,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9179,7 +9179,7 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -9410,7 +9410,7 @@
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11303,16 +11303,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>68.29586847696677</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>65.54986409393069</v>
       </c>
     </row>
     <row r="14">
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>43.26526345294985</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>125.5054897610402</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24133,10 +24133,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>46.45968844823237</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -24145,7 +24145,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>124.9899273367997</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24443,7 +24443,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -24452,7 +24452,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24601,25 +24601,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>103.8640922513198</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>124.5310997715155</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24850,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24892,7 +24892,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>40.32043864788574</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>118.3918499711701</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25315,16 +25315,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>186.7544012944564</v>
       </c>
     </row>
     <row r="38">
@@ -25549,22 +25549,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,10 +25798,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>40.32043864788577</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26026,16 +26026,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>137.2878198583898</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>185.741486670817</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>936413.6847924651</v>
+        <v>936413.6847924653</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>936413.6847924651</v>
+        <v>936413.6847924653</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>873172.0903518675</v>
+        <v>873172.0903518676</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.954790754</v>
       </c>
       <c r="F2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="G2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.954790754</v>
       </c>
       <c r="H2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="I2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="M2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="N2" t="n">
+        <v>544823.9547907535</v>
+      </c>
+      <c r="O2" t="n">
+        <v>544823.9547907538</v>
+      </c>
+      <c r="P2" t="n">
         <v>544823.9547907537</v>
-      </c>
-      <c r="M2" t="n">
-        <v>544823.9547907539</v>
-      </c>
-      <c r="N2" t="n">
-        <v>544823.9547907541</v>
-      </c>
-      <c r="O2" t="n">
-        <v>544823.9547907537</v>
-      </c>
-      <c r="P2" t="n">
-        <v>544823.9547907539</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>789845.9331222414</v>
+        <v>789845.9331222398</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2553.741448474159</v>
+        <v>2553.74144847562</v>
       </c>
       <c r="E3" t="n">
         <v>775624.2722329923</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172417.1413821403</v>
+        <v>172417.1413821404</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="C4" t="n">
-        <v>184436.3405408958</v>
+        <v>184436.3405408961</v>
       </c>
       <c r="D4" t="n">
         <v>183932.5854660025</v>
       </c>
       <c r="E4" t="n">
-        <v>6287.480531695062</v>
+        <v>6287.480531695051</v>
       </c>
       <c r="F4" t="n">
+        <v>6287.480531695053</v>
+      </c>
+      <c r="G4" t="n">
+        <v>6287.480531695061</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="I4" t="n">
+        <v>6287.480531695058</v>
+      </c>
+      <c r="J4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="G4" t="n">
+      <c r="K4" t="n">
+        <v>6287.480531695059</v>
+      </c>
+      <c r="L4" t="n">
+        <v>6287.48053169506</v>
+      </c>
+      <c r="M4" t="n">
         <v>6287.480531695051</v>
       </c>
-      <c r="H4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6287.480531695053</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6287.480531695052</v>
-      </c>
-      <c r="K4" t="n">
-        <v>6287.480531695076</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6287.480531695062</v>
-      </c>
-      <c r="M4" t="n">
-        <v>6287.480531695052</v>
-      </c>
       <c r="N4" t="n">
-        <v>6287.480531695051</v>
+        <v>6287.480531695085</v>
       </c>
       <c r="O4" t="n">
-        <v>6287.480531695061</v>
+        <v>6287.48053169507</v>
       </c>
       <c r="P4" t="n">
         <v>6287.480531695061</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538439</v>
       </c>
       <c r="C5" t="n">
-        <v>86566.12012538442</v>
+        <v>86566.12012538436</v>
       </c>
       <c r="D5" t="n">
         <v>86631.1255591778</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-506645.1991301305</v>
+        <v>-506645.1991301292</v>
       </c>
       <c r="C6" t="n">
-        <v>283200.7339921109</v>
+        <v>283200.7339921107</v>
       </c>
       <c r="D6" t="n">
-        <v>281085.7421847371</v>
+        <v>281085.7421847354</v>
       </c>
       <c r="E6" t="n">
-        <v>-338210.3277978406</v>
+        <v>-338245.0657232762</v>
       </c>
       <c r="F6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="G6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.2065097161</v>
       </c>
       <c r="H6" t="n">
-        <v>437413.9444351516</v>
+        <v>437379.206509716</v>
       </c>
       <c r="I6" t="n">
-        <v>437413.9444351518</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="J6" t="n">
-        <v>264996.8030530114</v>
+        <v>264962.0651275755</v>
       </c>
       <c r="K6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="L6" t="n">
-        <v>437413.9444351515</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="M6" t="n">
-        <v>309389.8269687649</v>
+        <v>309355.0890433291</v>
       </c>
       <c r="N6" t="n">
-        <v>437413.9444351519</v>
+        <v>437379.2065097156</v>
       </c>
       <c r="O6" t="n">
-        <v>437413.9444351515</v>
+        <v>437379.2065097159</v>
       </c>
       <c r="P6" t="n">
-        <v>437413.9444351517</v>
+        <v>437379.2065097158</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26735,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="D4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26814,7 +26814,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>590.4941997053405</v>
+        <v>590.4941997053388</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.981900632724546</v>
+        <v>2.981900632726251</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26975,10 +26975,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310529</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.732193168596</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>658.9760949310526</v>
+        <v>658.9760949310527</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>513.7321931685958</v>
+        <v>513.7321931685959</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>119.1032689661067</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27388,13 +27388,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>267.9475237405871</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,10 +27430,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.7043385723318</v>
+        <v>212.7043385723319</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,10 +27555,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I4" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J4" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,10 +27582,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>129.4149600371267</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>205.4595917937733</v>
+        <v>22.14576375911469</v>
       </c>
       <c r="T4" t="n">
         <v>223.3958800207158</v>
@@ -27597,10 +27597,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>241.4283205173987</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>258.7187580066875</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>315.1636514716171</v>
+        <v>239.8398550136408</v>
       </c>
       <c r="I5" t="n">
-        <v>118.9581905386867</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>154.9260532011784</v>
       </c>
       <c r="T5" t="n">
-        <v>212.7043385723318</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1557452255192</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27792,10 +27792,10 @@
         <v>152.75990484659</v>
       </c>
       <c r="I7" t="n">
-        <v>123.4282648842211</v>
+        <v>123.4282648842212</v>
       </c>
       <c r="J7" t="n">
-        <v>18.07600977063289</v>
+        <v>18.07600977063312</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,25 +27819,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>129.4149600371267</v>
+        <v>129.4149600371268</v>
       </c>
       <c r="S7" t="n">
-        <v>205.4595917937733</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>223.3958800207158</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>65.54798415015281</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>16.55615725177961</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>103.0277049411749</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>205.7588915677774</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>172.851595938737</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28059,22 +28059,22 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>205.3658819001186</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
       </c>
       <c r="U10" t="n">
-        <v>286.260654658097</v>
+        <v>6.798853602150245</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28816,7 +28816,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28995,7 +28995,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>-1.696776052995119e-12</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -30049,7 +30049,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -30207,7 +30207,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30417,7 +30417,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>-2.711780146180205e-13</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H2" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I2" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J2" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K2" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L2" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M2" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N2" t="n">
-        <v>423.5712815635102</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O2" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P2" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q2" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R2" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S2" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T2" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.270119599366204</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H3" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I3" t="n">
-        <v>43.72999497817852</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J3" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K3" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L3" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M3" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N3" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O3" t="n">
-        <v>302.1937627492038</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P3" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q3" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R3" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S3" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T3" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H4" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I4" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J4" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K4" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L4" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M4" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N4" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O4" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P4" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q4" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R4" t="n">
-        <v>47.87843134004284</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S4" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T4" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.373846028966191</v>
+        <v>2.373846028966184</v>
       </c>
       <c r="H5" t="n">
-        <v>24.31115064415001</v>
+        <v>24.31115064414994</v>
       </c>
       <c r="I5" t="n">
-        <v>91.51769903171918</v>
+        <v>91.51769903171892</v>
       </c>
       <c r="J5" t="n">
-        <v>201.4772144009694</v>
+        <v>201.4772144009689</v>
       </c>
       <c r="K5" t="n">
-        <v>301.9621168071084</v>
+        <v>301.9621168071075</v>
       </c>
       <c r="L5" t="n">
-        <v>374.6107072160826</v>
+        <v>374.6107072160814</v>
       </c>
       <c r="M5" t="n">
-        <v>416.82659153371</v>
+        <v>416.8265915337088</v>
       </c>
       <c r="N5" t="n">
-        <v>423.5712815635102</v>
+        <v>423.571281563509</v>
       </c>
       <c r="O5" t="n">
-        <v>399.9663501129777</v>
+        <v>399.9663501129765</v>
       </c>
       <c r="P5" t="n">
-        <v>341.3620262728747</v>
+        <v>341.3620262728738</v>
       </c>
       <c r="Q5" t="n">
-        <v>256.3486653605229</v>
+        <v>256.3486653605222</v>
       </c>
       <c r="R5" t="n">
-        <v>149.1161056170477</v>
+        <v>149.1161056170472</v>
       </c>
       <c r="S5" t="n">
-        <v>54.09401638506714</v>
+        <v>54.09401638506698</v>
       </c>
       <c r="T5" t="n">
-        <v>10.39151099179951</v>
+        <v>10.39151099179948</v>
       </c>
       <c r="U5" t="n">
-        <v>0.1899076823172953</v>
+        <v>0.1899076823172947</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.270119599366204</v>
+        <v>1.2701195993662</v>
       </c>
       <c r="H6" t="n">
-        <v>12.26668139387887</v>
+        <v>12.26668139387883</v>
       </c>
       <c r="I6" t="n">
-        <v>43.72999497817852</v>
+        <v>43.7299949781784</v>
       </c>
       <c r="J6" t="n">
-        <v>119.9984486401202</v>
+        <v>119.9984486401199</v>
       </c>
       <c r="K6" t="n">
-        <v>205.0964617976559</v>
+        <v>205.0964617976553</v>
       </c>
       <c r="L6" t="n">
-        <v>275.7775033623857</v>
+        <v>275.7775033623849</v>
       </c>
       <c r="M6" t="n">
-        <v>321.8193388394105</v>
+        <v>321.8193388394096</v>
       </c>
       <c r="N6" t="n">
-        <v>330.3369391351603</v>
+        <v>330.3369391351593</v>
       </c>
       <c r="O6" t="n">
-        <v>302.1937627492038</v>
+        <v>302.193762749203</v>
       </c>
       <c r="P6" t="n">
-        <v>242.5371364789728</v>
+        <v>242.5371364789721</v>
       </c>
       <c r="Q6" t="n">
-        <v>162.1296527190965</v>
+        <v>162.1296527190961</v>
       </c>
       <c r="R6" t="n">
-        <v>78.85882916064909</v>
+        <v>78.85882916064887</v>
       </c>
       <c r="S6" t="n">
-        <v>23.59191448822751</v>
+        <v>23.59191448822744</v>
       </c>
       <c r="T6" t="n">
-        <v>5.119473297445357</v>
+        <v>5.119473297445341</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08356049995830293</v>
+        <v>0.0835604999583027</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.064825606026024</v>
+        <v>1.064825606026021</v>
       </c>
       <c r="H7" t="n">
-        <v>9.467267660849563</v>
+        <v>9.467267660849537</v>
       </c>
       <c r="I7" t="n">
-        <v>32.02221004303716</v>
+        <v>32.02221004303707</v>
       </c>
       <c r="J7" t="n">
-        <v>75.28317034603988</v>
+        <v>75.28317034603965</v>
       </c>
       <c r="K7" t="n">
-        <v>123.7133749546598</v>
+        <v>123.7133749546595</v>
       </c>
       <c r="L7" t="n">
-        <v>158.3105269177236</v>
+        <v>158.3105269177231</v>
       </c>
       <c r="M7" t="n">
-        <v>166.9162538609702</v>
+        <v>166.9162538609698</v>
       </c>
       <c r="N7" t="n">
-        <v>162.9473584203279</v>
+        <v>162.9473584203274</v>
       </c>
       <c r="O7" t="n">
-        <v>150.5082592953875</v>
+        <v>150.5082592953871</v>
       </c>
       <c r="P7" t="n">
-        <v>128.7858169324565</v>
+        <v>128.7858169324561</v>
       </c>
       <c r="Q7" t="n">
-        <v>89.16462415550642</v>
+        <v>89.16462415550616</v>
       </c>
       <c r="R7" t="n">
-        <v>47.87843134004284</v>
+        <v>47.8784313400427</v>
       </c>
       <c r="S7" t="n">
-        <v>18.55700624319897</v>
+        <v>18.55700624319892</v>
       </c>
       <c r="T7" t="n">
-        <v>4.549709407565737</v>
+        <v>4.549709407565723</v>
       </c>
       <c r="U7" t="n">
-        <v>0.05808139669232864</v>
+        <v>0.05808139669232847</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31847,19 +31847,19 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>595.327537312171</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>202.2352659288688</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32072,31 +32072,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>344.2757660550399</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>362.5355639238086</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>181.9330708814852</v>
       </c>
       <c r="L18" t="n">
-        <v>399.9031616963283</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32327,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32555,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>698.850866879865</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>209.2370040367373</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,10 +33023,10 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33035,16 +33035,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33260,7 +33260,7 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
         <v>137.841438974359</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>322.8964653704906</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,28 +33737,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118742</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>506.5665344352332</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,7 +33989,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -34208,7 +34208,7 @@
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>475.1391886422585</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>368.6279838366855</v>
       </c>
       <c r="O42" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>530.5785304507792</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.43130987428316</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K2" t="n">
-        <v>406.0176783332926</v>
+        <v>81.87226576212697</v>
       </c>
       <c r="L2" t="n">
-        <v>556.5055067965458</v>
+        <v>222.8374390155442</v>
       </c>
       <c r="M2" t="n">
-        <v>635.9938917992698</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N2" t="n">
-        <v>631.5051423789034</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O2" t="n">
-        <v>214.6535477733457</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P2" t="n">
-        <v>110.1290305176052</v>
+        <v>431.9277386890869</v>
       </c>
       <c r="Q2" t="n">
-        <v>34.04297548607346</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>36.58622137397241</v>
+        <v>30.8620255032043</v>
       </c>
       <c r="K3" t="n">
-        <v>331.7202598358755</v>
+        <v>331.7202598358749</v>
       </c>
       <c r="L3" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M3" t="n">
-        <v>179.6853049173922</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N3" t="n">
-        <v>658.9760949310526</v>
+        <v>198.995227051826</v>
       </c>
       <c r="O3" t="n">
-        <v>553.459837581489</v>
+        <v>553.459837581488</v>
       </c>
       <c r="P3" t="n">
-        <v>108.5627290646426</v>
+        <v>108.5627290646419</v>
       </c>
       <c r="Q3" t="n">
-        <v>232.2251663689241</v>
+        <v>232.2251663689237</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,25 +34857,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L4" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M4" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N4" t="n">
-        <v>207.0795307995565</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O4" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P4" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q4" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>189.5279250463569</v>
+        <v>20.43130987428259</v>
       </c>
       <c r="K5" t="n">
-        <v>406.0176783332926</v>
+        <v>406.0176783332917</v>
       </c>
       <c r="L5" t="n">
-        <v>404.1408785172109</v>
+        <v>138.8442922460942</v>
       </c>
       <c r="M5" t="n">
-        <v>186.4803583064373</v>
+        <v>635.9938917992686</v>
       </c>
       <c r="N5" t="n">
-        <v>194.1582179669193</v>
+        <v>631.5051423789023</v>
       </c>
       <c r="O5" t="n">
-        <v>550.6683199540363</v>
+        <v>550.6683199540352</v>
       </c>
       <c r="P5" t="n">
-        <v>431.9277386890878</v>
+        <v>191.7754728873716</v>
       </c>
       <c r="Q5" t="n">
-        <v>246.3579661459781</v>
+        <v>34.04297548607272</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>119.2518573138624</v>
+        <v>119.251857313862</v>
       </c>
       <c r="K6" t="n">
-        <v>331.7202598358755</v>
+        <v>67.25502282329629</v>
       </c>
       <c r="L6" t="n">
-        <v>508.0634688859707</v>
+        <v>508.0634688859699</v>
       </c>
       <c r="M6" t="n">
-        <v>179.6853049173922</v>
+        <v>645.3903686673912</v>
       </c>
       <c r="N6" t="n">
-        <v>257.847690351226</v>
+        <v>658.9760949310524</v>
       </c>
       <c r="O6" t="n">
-        <v>553.459837581489</v>
+        <v>479.6316626400319</v>
       </c>
       <c r="P6" t="n">
-        <v>427.0254977045797</v>
+        <v>108.5627290646419</v>
       </c>
       <c r="Q6" t="n">
-        <v>232.2251663689241</v>
+        <v>22.14787863307455</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>101.443883128777</v>
+        <v>101.4438831287766</v>
       </c>
       <c r="L7" t="n">
-        <v>185.9005521780397</v>
+        <v>185.9005521780393</v>
       </c>
       <c r="M7" t="n">
-        <v>206.5001308228108</v>
+        <v>206.5001308228103</v>
       </c>
       <c r="N7" t="n">
-        <v>207.0795307995565</v>
+        <v>207.079530799556</v>
       </c>
       <c r="O7" t="n">
-        <v>175.0933872094272</v>
+        <v>175.0933872094267</v>
       </c>
       <c r="P7" t="n">
-        <v>126.06437619735</v>
+        <v>126.0643761973496</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.002580903812031</v>
+        <v>3.002580903811776</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,19 +35173,19 @@
         <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>407.5425384040863</v>
+        <v>184.9151732862435</v>
       </c>
       <c r="L8" t="n">
-        <v>392.3166085831128</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M8" t="n">
         <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
-        <v>196.2971847393761</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O8" t="n">
-        <v>552.6880856233105</v>
+        <v>171.8879043605652</v>
       </c>
       <c r="P8" t="n">
         <v>433.6515619588832</v>
@@ -35252,16 +35252,16 @@
         <v>119.8578301584805</v>
       </c>
       <c r="K9" t="n">
-        <v>332.7559639452625</v>
+        <v>68.29072693268387</v>
       </c>
       <c r="L9" t="n">
-        <v>509.4561008748672</v>
+        <v>138.615755571408</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>248.7689815793668</v>
+        <v>418.3695001454049</v>
       </c>
       <c r="O9" t="n">
         <v>554.9858674269929</v>
@@ -35407,7 +35407,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
         <v>479.454324036777</v>
@@ -35495,19 +35495,19 @@
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>463.9858252288377</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>68.26085851453861</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35665,7 +35665,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,31 +35720,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>212.9340539717066</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>222.5537898377871</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
         <v>37.00975247789211</v>
@@ -35899,7 +35899,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q17" t="n">
         <v>371.5675334924728</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>44.09163190712619</v>
       </c>
       <c r="L18" t="n">
-        <v>261.3487819164541</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35975,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>556.7168329578467</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060437</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36367,7 +36367,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O23" t="n">
         <v>696.488651224316</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36683,16 +36683,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902418</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>188.9220579561604</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37090,7 +37090,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>285.360777932</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>364.4325005132149</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,7 +37637,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37713,7 +37713,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060437</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37856,7 +37856,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>237.2862717533522</v>
       </c>
       <c r="O42" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
